--- a/data/income_statement/2digits/total/85_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/85_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>85-Education</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>85-Education</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,95 +841,110 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>5006109.150119999</v>
+        <v>5006109.150120001</v>
       </c>
       <c r="D5" s="47" t="n">
         <v>5681830.35571</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>6509310.844540001</v>
+        <v>6510021.61592</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>7895866.753719999</v>
+        <v>7905120.2905</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>9691158.13776</v>
+        <v>9704947.957909998</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>11457454.11656</v>
+        <v>11547173.08111</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>13144777.84634</v>
+        <v>13390366.27113</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>10180207.91378</v>
+        <v>14066923.40191</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>17721980.11547</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>25982949.77501</v>
+        <v>21679089.30916</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>26127765.71143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>26419399.7888</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>26989051.835</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>4827683.3958</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>5500961.185380001</v>
+        <v>5500961.18538</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>6296632.47464</v>
+        <v>6297338.44855</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>7608357.144680001</v>
+        <v>7617053.61453</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>9313754.287339998</v>
+        <v>9327395.198280001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>10994983.04169</v>
+        <v>11081861.59804</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>12691720.53378</v>
+        <v>12926393.16486</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>9730479.294439999</v>
+        <v>13539504.31838</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>17023371.90821</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>25004106.47417</v>
+        <v>20697707.37882</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>24833369.95074001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>25111438.53947001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>25866290.89</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>56899.42235</v>
+        <v>56899.42235000001</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>43450.86422</v>
@@ -1037,34 +953,39 @@
         <v>46282.35066</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>87335.48436</v>
+        <v>87825.71296</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>135215.84274</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>156514.39734</v>
+        <v>156664.11998</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>98634.03249000001</v>
+        <v>98926.08976</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>137091.60955</v>
+        <v>138806.21044</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>184493.8279</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>288703.3044199999</v>
+        <v>289880.86033</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>336115.75928</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>340708.73291</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>232055.82</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>121526.33197</v>
@@ -1073,79 +994,89 @@
         <v>137418.30611</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>166396.01924</v>
+        <v>166400.81671</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>200174.12468</v>
+        <v>200240.96301</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>242188.00768</v>
+        <v>242336.91689</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>305956.67753</v>
+        <v>308647.36309</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>354423.28007</v>
+        <v>365047.01651</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>312637.00979</v>
+        <v>388612.87309</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>514114.37936</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>690139.99642</v>
+        <v>691501.0700099999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>958280.0014099999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>967252.51642</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>890705.125</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>58018.50252</v>
+        <v>58018.50251999999</v>
       </c>
       <c r="D9" s="47" t="n">
         <v>75151.40702</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>97042.51939</v>
+        <v>97042.51938999999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>129886.44192</v>
+        <v>129887.78339</v>
       </c>
       <c r="G9" s="47" t="n">
         <v>170891.14822</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>177627.16942</v>
+        <v>180459.31594</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>273885.88204</v>
+        <v>276976.7086</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>130045.15275</v>
+        <v>334529.88333</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>445445.311</v>
+        <v>445445.3109999999</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>5018579.878369998</v>
+        <v>660968.4413699999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>992964.4589600001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>989440.92182</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1346355.921</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>9679.493329999999</v>
+        <v>9679.493329999998</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>11396.72839</v>
@@ -1154,34 +1085,39 @@
         <v>13678.48826</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>17988.70395</v>
+        <v>17990.04542</v>
       </c>
       <c r="G10" s="48" t="n">
         <v>24592.94633</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>42050.49781</v>
+        <v>42225.10894000001</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>51960.59722</v>
+        <v>52283.30229</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>49816.59289000001</v>
+        <v>69231.42186</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>84833.45807000001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>4449181.146029999</v>
+        <v>91569.70903</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>154974.75917</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>155797.526</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>323868.823</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>43432.96435999999</v>
@@ -1190,7 +1126,7 @@
         <v>57314.26198</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>75957.53654999999</v>
+        <v>75957.53655000002</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>99915.88356999999</v>
@@ -1199,13 +1135,13 @@
         <v>134690.76103</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>120087.29805</v>
+        <v>122744.83344</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>199574.79339</v>
+        <v>202342.9148799999</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>68223.43823</v>
+        <v>233532.65317</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>318437.22897</v>
@@ -1214,16 +1150,21 @@
         <v>519547.7508</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>768778.9035300001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>769534.77195</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>937921.336</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>4906.044829999999</v>
+        <v>4906.04483</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>6440.416649999999</v>
@@ -1241,10 +1182,10 @@
         <v>15489.37356</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>22350.49143</v>
+        <v>22350.49142999999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>12005.12163</v>
+        <v>31765.8083</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>42174.62396</v>
@@ -1253,247 +1194,282 @@
         <v>49850.98153999999</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>69210.79626</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>64108.62387</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>84565.762</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>4948090.647600002</v>
+        <v>4948090.647600001</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>5606678.948690002</v>
+        <v>5606678.94869</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>6412268.325150001</v>
+        <v>6412979.096530001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>7765980.311800001</v>
+        <v>7775232.50711</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>9520266.98954</v>
+        <v>9534056.809690002</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>11279826.94714</v>
+        <v>11366713.76517</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>12870891.9643</v>
+        <v>13113389.56253</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>10050162.76103</v>
+        <v>13732393.51858</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>17276534.80447</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>20964369.89664</v>
+        <v>21018120.86779</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>25134801.25247001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>25429958.86698</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>25642695.914</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>3893782.765500001</v>
+        <v>3893782.7655</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>4402072.539</v>
+        <v>4402072.538999999</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>5079447.1505</v>
+        <v>5080057.30172</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>6199673.35782</v>
+        <v>6207603.04165</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>7616790.31186</v>
+        <v>7628108.403480001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>9013987.578980001</v>
+        <v>9079621.076690001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>10274893.11779</v>
+        <v>10497513.31165</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>7712518.168819999</v>
+        <v>10723931.6086</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>13418629.23354</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>17198291.76232</v>
+        <v>17242159.58567</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>21209314.15522</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>21475904.90934</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>19362866.555</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>27060.67178</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>51412.80223</v>
+        <v>51412.80222999999</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>90018.82346000001</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>69286.58215999999</v>
+        <v>69312.12902000001</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>82022.57199</v>
+        <v>82024.02847999999</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>90305.31101999999</v>
+        <v>90447.28173</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>124103.76486</v>
+        <v>128587.66004</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>71483.53830999999</v>
+        <v>93825.08446</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>181989.52784</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>284152.56889</v>
+        <v>284214.55136</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>428596.60997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>432421.02169</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>477303.491</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>195482.7083300001</v>
+        <v>195482.70833</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>184877.15952</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>184871.12032</v>
+        <v>184879.94643</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>272822.57772</v>
+        <v>273174.88466</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>381075.5612</v>
+        <v>381446.22069</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>477511.54619</v>
+        <v>478329.0044</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>491791.2233300001</v>
+        <v>502822.91169</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>392477.68432</v>
+        <v>478112.01172</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>651098.3881000001</v>
+        <v>651098.3881</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>885823.23101</v>
+        <v>895767.3075100001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1465831.31459</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1476390.84671</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1460925.108</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>3664561.683540001</v>
+        <v>3664561.68354</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>4145215.499569999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>4794722.878040001</v>
+        <v>4795324.20315</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>5847733.87933</v>
+        <v>5855285.70936</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>7133134.33821</v>
+        <v>7144077.572729999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>8387546.21899</v>
+        <v>8452172.663170001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>9604153.01441</v>
+        <v>9809502.97597</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>7181855.296070001</v>
+        <v>10072623.85545</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>12500879.30721</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>15956362.91629</v>
+        <v>15990057.33502</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>19207178.25204001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>19458382.31884</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>17322253.077</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>6677.701849999999</v>
+        <v>6677.70185</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>20567.07768</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>9834.328680000001</v>
+        <v>9834.328680000002</v>
       </c>
       <c r="F18" s="48" t="n">
         <v>9830.31861</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>20557.84046</v>
+        <v>20560.58158</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>58624.50278</v>
+        <v>58672.12739000001</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>54845.11519</v>
+        <v>56599.76395</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>66701.65012000001</v>
+        <v>79370.65697</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>84662.01039</v>
+        <v>84662.01039000001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>71953.04613</v>
+        <v>72120.39178000001</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>107707.97862</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>108710.7221</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>102384.879</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>1054307.8821</v>
@@ -1502,37 +1478,42 @@
         <v>1204606.40969</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1332821.17465</v>
+        <v>1332921.79481</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1566306.95398</v>
+        <v>1567629.46546</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1903476.67768</v>
+        <v>1905948.40621</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2265839.36816</v>
+        <v>2287092.68848</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2595998.84651</v>
+        <v>2615876.25088</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2337644.59221</v>
+        <v>3008461.90998</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>3857905.57093</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3766078.13432</v>
+        <v>3775961.28212</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>3925487.09725</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3954053.957640001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>6279829.359</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>923587.59765</v>
@@ -1541,37 +1522,42 @@
         <v>1010053.83017</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1184237.12118</v>
+        <v>1184468.7012</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1410161.58749</v>
+        <v>1413022.89125</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1710106.9261</v>
+        <v>1713816.70863</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>2035422.89744</v>
+        <v>2053223.24551</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>2392817.911319999</v>
+        <v>2434910.06415</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>2137739.45363</v>
+        <v>2679426.85416</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>3200567.97355</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>3940140.20427</v>
+        <v>3961235.8257</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>4664064.98932</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>4753758.42029</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>4420624.367</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1289.73747</v>
@@ -1592,25 +1578,30 @@
         <v>3284.82931</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>5040.18564</v>
+        <v>5040.185640000001</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>5832.668210000001</v>
+        <v>5833.56587</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>10852.19725</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>5780.80175</v>
+        <v>5888.88296</v>
       </c>
       <c r="M21" s="48" t="n">
         <v>40678.42812</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>12385.682</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>77486.25014</v>
@@ -1619,37 +1610,42 @@
         <v>93235.65399999999</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>103933.86004</v>
+        <v>103934.10423</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>140935.12364</v>
+        <v>140992.61753</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>171960.23812</v>
+        <v>171981.23325</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>246811.40568</v>
+        <v>247991.75142</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>276733.41612</v>
+        <v>279584.96723</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>217035.09377</v>
+        <v>273201.51913</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>316305.90325</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>432412.54455</v>
+        <v>433314.1158800001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>449580.80424</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>453241.2854000001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>372333.382</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>844811.6100400001</v>
@@ -1658,37 +1654,42 @@
         <v>914496.44192</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1077535.96573</v>
+        <v>1077767.30156</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1267206.33348</v>
+        <v>1270010.14335</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1529604.76046</v>
+        <v>1533293.54786</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1785326.66245</v>
+        <v>1801946.66478</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>2111044.30956</v>
+        <v>2150284.91128</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1914871.69165</v>
+        <v>2400391.76916</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>2873409.87305</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>3501946.85797</v>
+        <v>3522032.82686</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>4173805.75696</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>4259838.70677</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>4035905.303</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>130720.28445</v>
@@ -1697,37 +1698,42 @@
         <v>194552.57952</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>148584.05347</v>
+        <v>148453.09361</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>156145.36649</v>
+        <v>154606.57421</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>193369.75158</v>
+        <v>192131.69758</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>230416.47072</v>
+        <v>233869.44297</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>203180.93519</v>
+        <v>180966.18673</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>199905.13858</v>
+        <v>329035.0558200001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>657337.5973800001</v>
+        <v>657337.5973800002</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-174062.06995</v>
+        <v>-185274.54358</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-738577.8920699999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-799704.46265</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1859204.992</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>134894.29929</v>
@@ -1736,61 +1742,66 @@
         <v>133177.79755</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>201398.86641</v>
+        <v>201404.685</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>206162.12968</v>
+        <v>206271.71672</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>225447.85398</v>
+        <v>225498.14858</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>309659.11912</v>
+        <v>310630.93504</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>425459.46321</v>
+        <v>433907.08469</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>343510.60958</v>
+        <v>507225.8749000001</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>734280.50999</v>
+        <v>734280.5099899999</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1190011.23979</v>
+        <v>1190492.00789</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1335842.88804</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1340122.81207</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1303722.658</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>1296.43059</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>849.6356599999999</v>
+        <v>849.63566</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>9306.81228</v>
+        <v>9306.812280000002</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>3175.59534</v>
+        <v>3236.85187</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>1002.98071</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>8095.676759999999</v>
+        <v>8095.67676</v>
       </c>
       <c r="I26" s="48" t="n">
         <v>4074.7768</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>17117.40677</v>
+        <v>17520.23039</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>4290.91442</v>
@@ -1799,13 +1810,18 @@
         <v>2219.82301</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>5610.74888</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>5610.748880000001</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>14123.332</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>74.97</v>
@@ -1817,7 +1833,7 @@
         <v>2277.32692</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>765.9241699999999</v>
+        <v>765.92417</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>8914.80366</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>12216.30175</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>3672.001</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>56959.54546</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>45118.20364</v>
+        <v>45118.20364000001</v>
       </c>
       <c r="E28" s="48" t="n">
         <v>49488.02491000001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>67398.09585</v>
+        <v>67402.03551999999</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>69496.46971999998</v>
+        <v>69496.78245</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>97927.28026</v>
+        <v>98104.24484</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>119999.84899</v>
+        <v>122143.18281</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>73782.50717000001</v>
+        <v>143307.75109</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>223424.38765</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>324808.10086</v>
+        <v>324907.51843</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>455250.19151</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>456063.39073</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>339447.799</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>896.64391</v>
@@ -1907,7 +1933,7 @@
         <v>2625.59324</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>2969.25974</v>
+        <v>3211.97556</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>6283.422880000001</v>
@@ -1916,16 +1942,21 @@
         <v>3601.36165</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>53667.62938000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>53667.10777</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>32332.177</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>4237.089019999999</v>
+        <v>4237.08902</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>5025.47354</v>
@@ -1934,19 +1965,19 @@
         <v>7326.44072</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>7634.127450000001</v>
+        <v>7634.12745</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>8093.971860000001</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>11802.89353</v>
+        <v>11829.31853</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>15895.55238</v>
+        <v>16002.97259</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>8762.4311</v>
+        <v>13928.04896</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>17551.92258</v>
@@ -1955,13 +1986,18 @@
         <v>20816.55948</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>22530.95502</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>22541.25502</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>29186.864</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>4955.26179</v>
@@ -1973,19 +2009,19 @@
         <v>3531.42516</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>3892.34151</v>
+        <v>3900.42052</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>3723.23026</v>
+        <v>3733.32263</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>4589.13234</v>
+        <v>4591.17734</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>8582.828950000001</v>
+        <v>8583.145260000001</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>3819.09132</v>
+        <v>8073.84963</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>11376.28008</v>
@@ -1994,16 +2030,21 @@
         <v>14560.38905</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>24415.98597</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>24752.46286</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>30836.776</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>38380.15683000001</v>
+        <v>38380.15683</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>27041.37942</v>
@@ -2012,34 +2053,39 @@
         <v>32186.28819</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>34190.6617</v>
+        <v>34190.90422</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>36366.47456</v>
+        <v>36369.40284</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>60169.60531</v>
+        <v>60869.1438</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>121124.1099</v>
+        <v>125115.51497</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>79795.5664</v>
+        <v>111902.80649</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>212108.91825</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>539688.8047199999</v>
+        <v>539987.0378099999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>412856.84097</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>413148.1715999999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>533522.514</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>260.71255</v>
@@ -2051,37 +2097,42 @@
         <v>312.16909</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>540.81005</v>
+        <v>540.8100499999999</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>572.02843</v>
+        <v>572.0284300000001</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>414.84069</v>
+        <v>419.27171</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>455.0581299999999</v>
+        <v>461.07755</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>1034.78695</v>
+        <v>1234.28678</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>1629.13561</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>9671.406320000002</v>
+        <v>9671.40632</v>
       </c>
       <c r="M33" s="48" t="n">
         <v>5405.16383</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>12877.564</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>95.16163000000002</v>
+        <v>95.16163</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>14.3993</v>
@@ -2099,10 +2150,10 @@
         <v>4.631930000000001</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>327.33145</v>
+        <v>378.39193</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>72.31094999999999</v>
+        <v>72.52616999999999</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>332.12489</v>
@@ -2113,89 +2164,104 @@
       <c r="M34" s="48" t="n">
         <v>37.16622</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>1.811</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>27738.32751</v>
+        <v>27738.32751000001</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>51074.88176999999</v>
+        <v>51074.88177</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>95588.35226000001</v>
+        <v>95594.17084999999</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>87244.03249000001</v>
+        <v>87280.10180000002</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>96254.50128000001</v>
+        <v>96291.46249999998</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>118812.29278</v>
+        <v>118874.70461</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>145733.93051</v>
+        <v>147881.99668</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>148311.31526</v>
+        <v>200128.46591</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>249639.53005</v>
+        <v>249639.5300499999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>265186.60372</v>
+        <v>265269.72116</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>343851.9045099999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>346681.04341</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>307721.82</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>76928.15515999999</v>
+        <v>76928.15516000001</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>54354.76285</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>80130.00925</v>
+        <v>80130.00972</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>62633.54078000001</v>
+        <v>62691.52370000001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>110060.07892</v>
+        <v>110163.271</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>112545.72384</v>
+        <v>113340.49425</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>175127.57202</v>
+        <v>178949.84381</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>257790.77151</v>
+        <v>309812.2491399999</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>403063.35278</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>521095.48329</v>
+        <v>521279.79961</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>664466.55317</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>660591.5362800001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>507357.209</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>2072.73139</v>
@@ -2207,34 +2273,39 @@
         <v>2549.16481</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>3392.50518</v>
+        <v>3450.37513</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>3263.08683</v>
+        <v>3318.43515</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>4345.72913</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>4651.132310000001</v>
+        <v>4704.10853</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>4020.19161</v>
+        <v>4827.82314</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>8176.42009</v>
+        <v>8176.420090000001</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>6795.262030000001</v>
+        <v>6817.50679</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>34145.67914</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>34467.01774</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>64209.838</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>13482.94317</v>
@@ -2249,31 +2320,36 @@
         <v>19724.36972</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>32698.95904</v>
+        <v>32745.26504000001</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>35349.71462999999</v>
+        <v>35349.71463</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>41608.18714</v>
+        <v>41894.41617</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>31560.93997</v>
+        <v>45677.59498</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>58215.70267</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>52387.53899</v>
+        <v>52392.18899</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>80408.86331999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>80679.37913000002</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>72375.526</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>562.61862</v>
@@ -2282,13 +2358,13 @@
         <v>225.80167</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>506.41233</v>
+        <v>506.4123300000001</v>
       </c>
       <c r="F39" s="48" t="n">
         <v>463.48232</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>448.7435200000001</v>
+        <v>448.7435199999999</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>520.6719599999999</v>
@@ -2297,22 +2373,27 @@
         <v>407.62625</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>397.41153</v>
+        <v>591.78791</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>315.88011</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>1149.80823</v>
+        <v>1150.62221</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>943.3812999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>943.0717</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>1946.125</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>45430.18028999999</v>
@@ -2324,34 +2405,39 @@
         <v>47668.51559</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>32968.67222</v>
+        <v>32968.77992</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>63348.70233</v>
+        <v>63350.23568</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>59680.37787</v>
+        <v>60468.78533</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>99064.11837</v>
+        <v>102442.66576</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>181006.25737</v>
+        <v>214459.4768</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>289152.0042500001</v>
+        <v>289152.00425</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>403821.7398099999</v>
+        <v>403837.7921900001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>465799.01361</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>465987.90201</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>310709.36</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>219.63356</v>
@@ -2366,16 +2452,16 @@
         <v>325.32221</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>600.2734600000001</v>
+        <v>600.27346</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>433.74714</v>
+        <v>439.76656</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>1242.44628</v>
+        <v>1253.11326</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>977.97411</v>
+        <v>1536.00154</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>179.05339</v>
@@ -2384,13 +2470,18 @@
         <v>4143.27325</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>6101.16945</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>6101.169450000001</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>13277.434</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>39.99219</v>
@@ -2414,7 +2505,7 @@
         <v>1.55228</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>0</v>
@@ -2425,128 +2516,148 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>15120.05594</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>5728.765810000001</v>
+        <v>5728.76581</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>11759.58799</v>
+        <v>11759.58846</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>5689.084370000001</v>
+        <v>5689.089639999999</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>9687.475440000002</v>
+        <v>9687.47985</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>12215.38186</v>
+        <v>12215.72539</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>28152.50939</v>
+        <v>28246.36156</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>39827.99692</v>
+        <v>42719.56177</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>47024.29227</v>
+        <v>47024.29227000001</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>52797.84683999999</v>
+        <v>52938.40204000001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>77068.44635</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>72412.99625000001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>44838.926</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>87883.78795</v>
+        <v>87883.78794999998</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>79925.54397</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>96175.01680000001</v>
+        <v>96175.19088999998</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>112005.90922</v>
+        <v>112382.14491</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>161247.2532</v>
+        <v>161706.43881</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>218304.23292</v>
+        <v>219567.87732</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>309552.27892</v>
+        <v>322639.8051200001</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>242536.0562</v>
+        <v>369133.19245</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>581033.3188499999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>976339.0489500001</v>
+        <v>976899.89582</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1121533.261</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1127723.35891</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1021673.896</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>77582.6436</v>
+        <v>77582.64360000001</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>70421.94657000001</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>77795.96903000001</v>
+        <v>77796.14312000001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>104089.41065</v>
+        <v>104465.64634</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>133196.55141</v>
+        <v>133655.73702</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>192210.85988</v>
+        <v>193168.79147</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>269522.77092</v>
+        <v>275210.6618999999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>209634.03579</v>
+        <v>328492.73133</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>480361.59864</v>
+        <v>480361.5986399999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>760648.9916999998</v>
+        <v>761209.83857</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>972679.3246400002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>978224.0965099999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>848926.527</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>10301.14435</v>
@@ -2558,19 +2669,19 @@
         <v>18379.04777</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>7916.498570000001</v>
+        <v>7916.49857</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>28050.70179</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>26093.37304</v>
+        <v>26399.08585</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>40029.508</v>
+        <v>47429.14322</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>32902.02041</v>
+        <v>40640.46112</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>100671.72021</v>
@@ -2579,13 +2690,18 @@
         <v>215690.05725</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>148853.93636</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>149499.2624</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>172747.369</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>100802.64063</v>
@@ -2594,37 +2710,42 @@
         <v>193450.07025</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>173677.89383</v>
+        <v>173552.578</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>187668.04617</v>
+        <v>185804.62232</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>147510.27344</v>
+        <v>145760.13635</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>209225.63308</v>
+        <v>211592.00644</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>143960.54746</v>
+        <v>113283.62249</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>43088.92045</v>
+        <v>157315.48913</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>407521.43574</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-481485.3624</v>
+        <v>-492962.23112</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-1188734.8182</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-1247896.54577</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1633896.545</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>73478.32442999999</v>
@@ -2633,37 +2754,42 @@
         <v>75266.22710999999</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>88554.93088000001</v>
+        <v>88554.93087999999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>89003.76699999998</v>
+        <v>89053.09211</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>159128.03139</v>
+        <v>159688.33479</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>222123.22182</v>
+        <v>222432.65093</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>240579.13848</v>
+        <v>242482.51989</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>157513.33902</v>
+        <v>207622.27266</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>298921.3297999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>327730.87173</v>
+        <v>328016.13878</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>364269.20284</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>371968.88405</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>473705.366</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>900.84838</v>
@@ -2681,13 +2807,13 @@
         <v>1330.80904</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>2437.38499</v>
+        <v>2466.0382</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1692.68952</v>
+        <v>1743.0987</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>1961.00717</v>
+        <v>2416.37322</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>2665.46391</v>
@@ -2696,13 +2822,18 @@
         <v>2854.4823</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>4744.25305</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>4764.65714</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>8253.878000000001</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>72577.47605</v>
@@ -2714,73 +2845,83 @@
         <v>87259.70995</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>87170.50454000001</v>
+        <v>87219.82965</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>157797.22235</v>
+        <v>158357.52575</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>219685.83683</v>
+        <v>219966.61273</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>238886.44896</v>
+        <v>240739.42119</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>155552.33185</v>
+        <v>205205.8994400001</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>296255.86589</v>
+        <v>296255.8658899998</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>324876.38943</v>
+        <v>325161.65648</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>359524.94979</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>367204.22691</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>465451.488</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>46880.38041000001</v>
+        <v>46880.38041</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>57898.64724999999</v>
+        <v>57898.64725</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>404125.56515</v>
+        <v>404125.6051100001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>130174.17406</v>
+        <v>130370.25904</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>121405.09992</v>
+        <v>121441.48085</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>231618.19403</v>
+        <v>232393.56033</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>221883.3645800001</v>
+        <v>225050.8697</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>269304.48514</v>
+        <v>303336.91859</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>227520.30018</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>469386.15452</v>
+        <v>471652.10471</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>369028.8601699999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>371231.0325000001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>336995.554</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>2067.8009</v>
@@ -2804,7 +2945,7 @@
         <v>2044.60519</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>2252.54675</v>
+        <v>3321.88114</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>6445.032740000001</v>
@@ -2815,14 +2956,19 @@
       <c r="M52" s="48" t="n">
         <v>5257.018950000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>13483.753</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>5434.15121</v>
+        <v>5434.151210000001</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>6842.34002</v>
@@ -2837,67 +2983,77 @@
         <v>16609.50843</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>9742.130539999998</v>
+        <v>9777.543300000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>15200.43202</v>
+        <v>15489.74814</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>4893.468859999999</v>
+        <v>7740.22301</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>11980.57953</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>12958.6295</v>
+        <v>12959.16683</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>12377.94319</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>12665.05047</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>14988.438</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>39378.4283</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>49958.01363</v>
+        <v>49958.01362999999</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>387338.09113</v>
+        <v>387338.13109</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>104552.14365</v>
+        <v>104748.22863</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>101859.69975</v>
+        <v>101896.08068</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>218642.42913</v>
+        <v>219382.38267</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>204638.32737</v>
+        <v>207516.51637</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>262158.46953</v>
+        <v>292274.81444</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>209094.68791</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>453781.1856999999</v>
+        <v>456046.59856</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>351393.89803</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>353308.96308</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>308523.363</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>127400.58465</v>
@@ -2906,112 +3062,125 @@
         <v>210817.65011</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-141892.74044</v>
+        <v>-142018.09623</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>146497.63911</v>
+        <v>144487.45539</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>185233.20491</v>
+        <v>184006.99029</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>199730.66087</v>
+        <v>201631.09704</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>162656.32136</v>
+        <v>130715.27268</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-68702.22567</v>
+        <v>61600.84320000002</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>478922.46536</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-623140.6451900001</v>
+        <v>-636598.19705</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-1193494.47553</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-1247158.694219999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1770606.357</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>52895.34448000001</v>
+        <v>52895.34448</v>
       </c>
       <c r="D56" s="47" t="n">
         <v>62329.59928</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>73314.36473999999</v>
+        <v>73315.83188999999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>79611.54436</v>
+        <v>79625.81267999999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>90262.76704999999</v>
+        <v>90263.90279000001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>105063.99473</v>
+        <v>105153.21706</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>116645.14129</v>
+        <v>116989.20511</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>78378.57293000002</v>
+        <v>114937.80515</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>148755.45284</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>214351.55306</v>
+        <v>214777.92152</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>208029.93419</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>210079.21423</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>287592.841</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>74505.24016999999</v>
+        <v>74505.24017</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>148488.05083</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-215207.10518</v>
+        <v>-215333.92812</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>66886.09475</v>
+        <v>64861.64271</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>94970.43786000005</v>
+        <v>93743.08749999999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>94666.66614000004</v>
+        <v>96477.87998</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>46011.18006999998</v>
+        <v>13726.06756999998</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-147080.7986</v>
+        <v>-53336.96195000002</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>330167.01252</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-837492.19825</v>
+        <v>-851376.1185699998</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-1401524.40972</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-1457237.90845</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1483013.516</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>7411</v>
@@ -3038,34 +3210,37 @@
         <v>7776</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>8223</v>
+        <v>8228</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>8810</v>
+        <v>8827</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>9370</v>
+        <v>9394</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>9950</v>
+        <v>9996</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>10568</v>
+        <v>10697</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>10254</v>
+        <v>10669</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>11802</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>12540</v>
+        <v>13060</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>13273</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>14213</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>15177</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>